--- a/BackTest/2020-01-22 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-22 BackTest STEEM.xlsx
@@ -616,7 +616,7 @@
         <v>180550.0365947201</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>158144.0625947201</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>152499.4455947201</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>129387.6025947201</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>143431.0257947201</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>143431.0257947201</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>124517.8490947201</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>133685.7531947201</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>133685.7531947201</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>128353.7727947201</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>118248.8028947201</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>107820.0368947201</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>134372.4098947201</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>103696.9072482301</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>103696.9072482301</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>84423.38264823006</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>63478.16646360005</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>318366.0698885</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>319004.0698885</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>338522.06378559</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>364804.06558559</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>347083.32258559</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>354403.33258559</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>318293.9303684499</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>329747.87083661</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>339337.00313661</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>334101.65223661</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>320161.00203661</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>338511.44423661</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>338511.44423661</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>352456.56363661</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>335595.53358997</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>327626.77518997</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>280586.13436597</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>284899.65025974</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>270320.41175974</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>267675.37275974</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>267675.37275974</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>254882.36755974</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>266690.25715974</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>261078.82425974</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>252840.0592597399</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>256725.9241597399</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -21934,11 +21934,17 @@
         <v>-337019.6543023198</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>201</v>
+      </c>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -21967,11 +21973,17 @@
         <v>-337019.6543023198</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>200.9</v>
+      </c>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22000,11 +22012,17 @@
         <v>-337019.6543023198</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>200.9</v>
+      </c>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22033,11 +22051,17 @@
         <v>-337019.6543023198</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>200.9</v>
+      </c>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22066,11 +22090,17 @@
         <v>-337019.6543023198</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>200.9</v>
+      </c>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22099,11 +22129,17 @@
         <v>-332519.6543023198</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>200.9</v>
+      </c>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22132,11 +22168,17 @@
         <v>-332813.1679023198</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>202.8</v>
+      </c>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22165,11 +22207,17 @@
         <v>-332813.1679023198</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>201</v>
+      </c>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22198,11 +22246,17 @@
         <v>-332813.1679023198</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>201</v>
+      </c>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22231,11 +22285,17 @@
         <v>-340316.2977023198</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>201</v>
+      </c>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22264,11 +22324,17 @@
         <v>-342165.7654023198</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>200.9</v>
+      </c>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22297,11 +22363,17 @@
         <v>-342165.7654023198</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>200</v>
+      </c>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22330,11 +22402,17 @@
         <v>-336004.1088023198</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>200</v>
+      </c>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22363,11 +22441,17 @@
         <v>-344372.1266023198</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>200.1</v>
+      </c>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22396,11 +22480,17 @@
         <v>-345379.9711023198</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>200</v>
+      </c>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22429,11 +22519,17 @@
         <v>-345379.9711023198</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>199.3</v>
+      </c>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22462,11 +22558,17 @@
         <v>-351599.9711023198</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I669" t="n">
+        <v>199.3</v>
+      </c>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22495,11 +22597,17 @@
         <v>-351599.9711023198</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I670" t="n">
+        <v>199.1</v>
+      </c>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22528,11 +22636,17 @@
         <v>-351599.9711023198</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>199.1</v>
+      </c>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22561,11 +22675,17 @@
         <v>-351599.9711023198</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>199.1</v>
+      </c>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22594,11 +22714,17 @@
         <v>-351599.9711023198</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>199.1</v>
+      </c>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22627,11 +22753,17 @@
         <v>-351599.9711023198</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>199.1</v>
+      </c>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22660,11 +22792,17 @@
         <v>-351599.9711023198</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>199.1</v>
+      </c>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22693,11 +22831,17 @@
         <v>-351599.9711023198</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>199.1</v>
+      </c>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22726,11 +22870,17 @@
         <v>-353186.4115023198</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I677" t="n">
+        <v>199.1</v>
+      </c>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22759,11 +22909,17 @@
         <v>-351466.4115023198</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I678" t="n">
+        <v>198.7</v>
+      </c>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -22792,11 +22948,17 @@
         <v>-351466.4115023198</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I679" t="n">
+        <v>199.1</v>
+      </c>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -22833,7 +22995,7 @@
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L680" t="n">
@@ -23527,9 +23689,11 @@
         <v>-343675.7087023198</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>202.2</v>
+      </c>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
@@ -23564,9 +23728,11 @@
         <v>-349033.7774023198</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>201.8</v>
+      </c>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
@@ -23601,9 +23767,11 @@
         <v>-351652.9787023198</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>198.5</v>
+      </c>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
@@ -23872,9 +24040,11 @@
         <v>-365495.2855023198</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>201.1</v>
+      </c>
       <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
@@ -23909,9 +24079,11 @@
         <v>-365489.7855023198</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>198.5</v>
+      </c>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
@@ -23946,9 +24118,11 @@
         <v>-365726.7855023198</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>199.5</v>
+      </c>
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
@@ -23983,9 +24157,11 @@
         <v>-365726.7855023198</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>199.4</v>
+      </c>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
@@ -24020,9 +24196,11 @@
         <v>-365447.7855023198</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>199.4</v>
+      </c>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
@@ -24057,9 +24235,11 @@
         <v>-365453.7855023198</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>199.5</v>
+      </c>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
@@ -24094,9 +24274,11 @@
         <v>-365437.7855023198</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>198.5</v>
+      </c>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
@@ -24131,9 +24313,11 @@
         <v>-366138.1983023198</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I714" t="n">
+        <v>199</v>
+      </c>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
@@ -24168,9 +24352,11 @@
         <v>-366138.1983023198</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>198.4</v>
+      </c>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
@@ -24244,9 +24430,11 @@
         <v>-362468.0829023198</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>200</v>
+      </c>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
@@ -24281,9 +24469,11 @@
         <v>-362429.0829023198</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>198.7</v>
+      </c>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
@@ -24318,9 +24508,11 @@
         <v>-360923.0829023198</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>198.8</v>
+      </c>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
@@ -24355,9 +24547,11 @@
         <v>-360899.0829023198</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>198.9</v>
+      </c>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
@@ -24392,9 +24586,11 @@
         <v>-359146.2718023198</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>199.3</v>
+      </c>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
@@ -24429,9 +24625,11 @@
         <v>-359291.9841023198</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>202</v>
+      </c>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
@@ -24466,9 +24664,11 @@
         <v>-359291.9841023198</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I723" t="n">
+        <v>200</v>
+      </c>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
@@ -24503,9 +24703,11 @@
         <v>-358283.3448023198</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>200</v>
+      </c>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
@@ -24540,9 +24742,11 @@
         <v>-358286.3448023198</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>201.6</v>
+      </c>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
@@ -24577,9 +24781,11 @@
         <v>-359658.4655023199</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>200.1</v>
+      </c>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
@@ -24614,9 +24820,11 @@
         <v>-355441.5090023199</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I727" t="n">
+        <v>198.9</v>
+      </c>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
@@ -24651,9 +24859,11 @@
         <v>-355444.5090023199</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>201.4</v>
+      </c>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
@@ -24688,9 +24898,11 @@
         <v>-356596.6682023199</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>200.3</v>
+      </c>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
@@ -24725,9 +24937,11 @@
         <v>-364821.0962023199</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I730" t="n">
+        <v>200.2</v>
+      </c>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
@@ -24762,9 +24976,11 @@
         <v>-364846.0962023199</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I731" t="n">
+        <v>200.1</v>
+      </c>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
@@ -24799,9 +25015,11 @@
         <v>-364846.0962023199</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>199.3</v>
+      </c>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
@@ -24836,9 +25054,11 @@
         <v>-371618.9149023199</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>199.3</v>
+      </c>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
@@ -24873,9 +25093,11 @@
         <v>-371618.9149023199</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>199.2</v>
+      </c>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
@@ -24910,9 +25132,11 @@
         <v>-369912.1018023199</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>199.2</v>
+      </c>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
@@ -24947,9 +25171,11 @@
         <v>-369927.3756023199</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>199.3</v>
+      </c>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
@@ -24984,9 +25210,11 @@
         <v>-331341.6775023199</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>199.1</v>
+      </c>
       <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
@@ -25021,9 +25249,11 @@
         <v>-331341.6775023199</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>200.5</v>
+      </c>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
@@ -25058,9 +25288,11 @@
         <v>-331354.0927023199</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>200.5</v>
+      </c>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
@@ -25095,9 +25327,11 @@
         <v>-332538.3304023199</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>200.4</v>
+      </c>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
@@ -25132,9 +25366,11 @@
         <v>-332533.3304023199</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>198.1</v>
+      </c>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
@@ -25169,9 +25405,11 @@
         <v>-333226.0154023199</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>200.6</v>
+      </c>
       <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr">
         <is>
@@ -25206,9 +25444,11 @@
         <v>-336189.2166023199</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>200.3</v>
+      </c>
       <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
@@ -25243,9 +25483,11 @@
         <v>-336189.2166023199</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>200.1</v>
+      </c>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
@@ -25280,9 +25522,11 @@
         <v>-338375.3014023199</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>200.1</v>
+      </c>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
@@ -25317,9 +25561,11 @@
         <v>-349269.6853023199</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>199.8</v>
+      </c>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
@@ -25471,9 +25717,11 @@
         <v>-344027.4035023199</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>199.8</v>
+      </c>
       <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
@@ -25625,9 +25873,11 @@
         <v>-339878.9120023199</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>198</v>
+      </c>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
@@ -25740,9 +25990,11 @@
         <v>-339878.9120023199</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>199.4</v>
+      </c>
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
@@ -25777,9 +26029,11 @@
         <v>-340527.9120023199</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>199.4</v>
+      </c>
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
@@ -26204,9 +26458,11 @@
         <v>-327532.3638023199</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I769" t="n">
+        <v>199.1</v>
+      </c>
       <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
@@ -26280,9 +26536,11 @@
         <v>-327835.9280023199</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I771" t="n">
+        <v>200.5</v>
+      </c>
       <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
@@ -26473,9 +26731,11 @@
         <v>-332500.2510023199</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
-      </c>
-      <c r="I776" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I776" t="n">
+        <v>198.7</v>
+      </c>
       <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
@@ -26783,9 +27043,11 @@
         <v>-291359.2433023199</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I784" t="n">
+        <v>199</v>
+      </c>
       <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
@@ -26820,9 +27082,11 @@
         <v>-291320.4936023199</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>199.4</v>
+      </c>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
@@ -26857,9 +27121,11 @@
         <v>-291654.5936023199</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I786" t="n">
+        <v>200.4</v>
+      </c>
       <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
@@ -26894,9 +27160,11 @@
         <v>-291529.5936023199</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>199.7</v>
+      </c>
       <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
@@ -26931,9 +27199,11 @@
         <v>-291529.5936023199</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>200.1</v>
+      </c>
       <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
@@ -26968,9 +27238,11 @@
         <v>-291529.5936023199</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>200.1</v>
+      </c>
       <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
@@ -27005,9 +27277,11 @@
         <v>-291529.5936023199</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I790" t="n">
+        <v>200.1</v>
+      </c>
       <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
@@ -27042,9 +27316,11 @@
         <v>-299432.4814023199</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
-      </c>
-      <c r="I791" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I791" t="n">
+        <v>200.1</v>
+      </c>
       <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
@@ -27079,9 +27355,11 @@
         <v>-313271.8947023199</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
-      </c>
-      <c r="I792" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I792" t="n">
+        <v>200</v>
+      </c>
       <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
@@ -27116,9 +27394,11 @@
         <v>-308735.2419023199</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
-      </c>
-      <c r="I793" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I793" t="n">
+        <v>196.8</v>
+      </c>
       <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
@@ -27153,9 +27433,11 @@
         <v>-308874.12200232</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
-      </c>
-      <c r="I794" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I794" t="n">
+        <v>198.9</v>
+      </c>
       <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
@@ -27190,9 +27472,11 @@
         <v>-308736.12200232</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I795" t="n">
+        <v>198</v>
+      </c>
       <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
@@ -27227,9 +27511,11 @@
         <v>-308736.12200232</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I796" t="n">
+        <v>198.9</v>
+      </c>
       <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
@@ -27264,9 +27550,11 @@
         <v>-316185.9817023199</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
+        <v>198.9</v>
+      </c>
       <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
